--- a/state-machine_S2T.xlsx
+++ b/state-machine_S2T.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amano\Devel\DataFederation\KAKEN-OUBO-2019\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amano\Devel\DataFederation\DimensionDefinitionLanguage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586937AD-2B57-4C48-8719-30A70D8636DA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681DC11E-82DA-4C09-B86A-82EAF0511C8B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18585" windowHeight="10605" activeTab="3" xr2:uid="{CD835FDA-50C7-41B6-968C-35B56F1F7D99}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18585" windowHeight="10605" firstSheet="1" activeTab="3" xr2:uid="{CD835FDA-50C7-41B6-968C-35B56F1F7D99}"/>
   </bookViews>
   <sheets>
     <sheet name="S2Tコンバータ(ex.01)" sheetId="5" r:id="rId1"/>
-    <sheet name="S2Tコンバータ(ex.02)" sheetId="6" r:id="rId2"/>
-    <sheet name="S2Tコンバータ(ex.03)" sheetId="7" r:id="rId3"/>
-    <sheet name="S2Tコンバータ(ex.04)" sheetId="8" r:id="rId4"/>
-    <sheet name="S2Tコンバータ(ex.05)" sheetId="9" r:id="rId5"/>
+    <sheet name="S2Tコンバータ(ex.04)" sheetId="8" r:id="rId2"/>
+    <sheet name="S2Tコンバータ(ex.05)" sheetId="9" r:id="rId3"/>
+    <sheet name="S2Tコンバータ(ex.06)" sheetId="11" r:id="rId4"/>
+    <sheet name="S2Tコンバータ(ex.07)" sheetId="12" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="162">
   <si>
     <t>$</t>
     <phoneticPr fontId="1"/>
@@ -168,14 +168,6 @@
   </si>
   <si>
     <t>(,$</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(,$)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[$]</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -186,21 +178,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>"$xx"を最初にprint</t>
-    <rPh sb="6" eb="8">
-      <t>サイショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>","を無視してprint</t>
     <rPh sb="4" eb="6">
       <t>ムシ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>そのままprint</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -243,19 +224,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>BUF_HEAD</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>((</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>(</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(,</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -308,10 +277,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>($1,</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>((($2</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -324,27 +289,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>$1[</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>$23[]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>(,$4</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>(,$4)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[$4]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>","または")"</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -474,6 +423,322 @@
   </si>
   <si>
     <t>($23)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OUTPUT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>トリガキーとなるchar</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>charと組み合わせる条件</t>
+    <rPh sb="5" eb="6">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>適用</t>
+    <rPh sb="0" eb="2">
+      <t>テキヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>print BUF_HEAD-&gt;BUF_HEAD_TMP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BUF_HEAD_TMPにcpしてから操作</t>
+    <rPh sb="19" eb="21">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PRINT_TRIG_ACCがTRUEかつPRINT_TRIGがTRUE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>print out</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BUF_HEAD_PTR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BUF_END_PTR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BUF_HEAD[BUF_HEAD_PTR]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0クリア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>\n</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>($</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>($,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$(</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>((</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(((</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>((($</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>((($)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BRK_S_COUNT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>((($))</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>((($)),</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$()()(</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$))</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$))\n</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$($[,3]()()($))</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>((($[</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>((($[,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>((($[,3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>((($[,3]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>((($[,3])</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>((($[,3]))</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>((($[,3])),</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$[,3]()()(</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$))</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$))\n</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>print BUF_HEAD-&gt;BUF_PRINT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BUF_PRINTにcpしてから操作</t>
+    <rPh sb="16" eb="18">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$($()()($))</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -569,7 +834,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -607,6 +872,36 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -946,10 +1241,10 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1126,7 +1421,7 @@
         <v>-1</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.4">
@@ -1249,7 +1544,7 @@
         <v>2</v>
       </c>
       <c r="S12" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.4">
@@ -1360,7 +1655,7 @@
         <v>4</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.4">
@@ -1434,10 +1729,10 @@
         <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G25" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="I25" t="s">
         <v>1</v>
@@ -1466,1572 +1761,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA772492-6507-4B59-99AF-58F2B4E0CF9A}">
-  <dimension ref="A1:V27"/>
-  <sheetViews>
-    <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="2" max="2" width="13.75" customWidth="1"/>
-    <col min="3" max="3" width="22.125" customWidth="1"/>
-    <col min="4" max="4" width="14.5" customWidth="1"/>
-    <col min="5" max="5" width="4.375" customWidth="1"/>
-    <col min="6" max="18" width="4.875" customWidth="1"/>
-    <col min="21" max="21" width="23.25" style="5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>41</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U3" s="6"/>
-    </row>
-    <row r="5" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="U5" s="6"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>2</v>
-      </c>
-      <c r="I6">
-        <v>3</v>
-      </c>
-      <c r="J6">
-        <v>4</v>
-      </c>
-      <c r="K6">
-        <v>5</v>
-      </c>
-      <c r="L6">
-        <v>6</v>
-      </c>
-      <c r="M6">
-        <v>7</v>
-      </c>
-      <c r="N6">
-        <v>8</v>
-      </c>
-      <c r="O6">
-        <v>9</v>
-      </c>
-      <c r="P6">
-        <v>10</v>
-      </c>
-      <c r="Q6">
-        <v>11</v>
-      </c>
-      <c r="R6">
-        <v>12</v>
-      </c>
-      <c r="S6">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
-      <c r="J7">
-        <v>3</v>
-      </c>
-      <c r="K7">
-        <v>4</v>
-      </c>
-      <c r="L7">
-        <v>4</v>
-      </c>
-      <c r="M7">
-        <v>3</v>
-      </c>
-      <c r="N7">
-        <v>2</v>
-      </c>
-      <c r="O7">
-        <v>2</v>
-      </c>
-      <c r="P7">
-        <v>2</v>
-      </c>
-      <c r="Q7">
-        <v>1</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>1</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>1</v>
-      </c>
-      <c r="R10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" t="s">
-        <v>1</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" t="s">
-        <v>1</v>
-      </c>
-      <c r="J11" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11" t="s">
-        <v>14</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N11" t="s">
-        <v>17</v>
-      </c>
-      <c r="O11" t="s">
-        <v>33</v>
-      </c>
-      <c r="P11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>35</v>
-      </c>
-      <c r="R11" t="s">
-        <v>2</v>
-      </c>
-      <c r="V11" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="C12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12" s="2">
-        <v>0</v>
-      </c>
-      <c r="M12" s="2">
-        <v>1</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>1</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>1</v>
-      </c>
-      <c r="R12">
-        <v>1</v>
-      </c>
-      <c r="V12" s="7"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="C13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="V13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="U16" s="6"/>
-    </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.4">
-      <c r="C17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N17" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>36</v>
-      </c>
-      <c r="R17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.4">
-      <c r="D18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" t="s">
-        <v>5</v>
-      </c>
-      <c r="M18" t="s">
-        <v>2</v>
-      </c>
-      <c r="N18" t="s">
-        <v>2</v>
-      </c>
-      <c r="O18" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>2</v>
-      </c>
-      <c r="R18" t="s">
-        <v>2</v>
-      </c>
-      <c r="U18" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.4">
-      <c r="D19" t="s">
-        <v>37</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M19" t="s">
-        <v>38</v>
-      </c>
-      <c r="O19" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>39</v>
-      </c>
-      <c r="R19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.4">
-      <c r="C20" t="s">
-        <v>22</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>1</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="Q20">
-        <v>1</v>
-      </c>
-      <c r="R20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.4">
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" t="s">
-        <v>5</v>
-      </c>
-      <c r="M21" t="s">
-        <v>2</v>
-      </c>
-      <c r="N21" t="s">
-        <v>2</v>
-      </c>
-      <c r="O21" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>2</v>
-      </c>
-      <c r="R21" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.4">
-      <c r="D22" t="s">
-        <v>47</v>
-      </c>
-      <c r="H22" t="s">
-        <v>51</v>
-      </c>
-      <c r="M22" t="s">
-        <v>48</v>
-      </c>
-      <c r="N22" t="s">
-        <v>49</v>
-      </c>
-      <c r="O22" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>51</v>
-      </c>
-      <c r="R22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="U24" s="6"/>
-    </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.4">
-      <c r="C25" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" t="s">
-        <v>1</v>
-      </c>
-      <c r="G25" t="s">
-        <v>26</v>
-      </c>
-      <c r="I25" t="s">
-        <v>1</v>
-      </c>
-      <c r="J25" t="s">
-        <v>12</v>
-      </c>
-      <c r="K25" t="s">
-        <v>14</v>
-      </c>
-      <c r="L25" t="s">
-        <v>28</v>
-      </c>
-      <c r="M25" t="s">
-        <v>12</v>
-      </c>
-      <c r="N25" t="s">
-        <v>1</v>
-      </c>
-      <c r="O25" t="s">
-        <v>33</v>
-      </c>
-      <c r="P25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.4">
-      <c r="C26" t="s">
-        <v>45</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>1</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>1</v>
-      </c>
-      <c r="R26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.4">
-      <c r="C27" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
-      <c r="J27">
-        <v>1</v>
-      </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>2</v>
-      </c>
-      <c r="N27">
-        <v>3</v>
-      </c>
-      <c r="O27">
-        <v>3</v>
-      </c>
-      <c r="P27">
-        <v>3</v>
-      </c>
-      <c r="Q27">
-        <v>4</v>
-      </c>
-      <c r="R27">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0D0E958-CFDD-4D52-8CBF-04F9E08AA781}">
-  <dimension ref="A1:Z27"/>
-  <sheetViews>
-    <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="2" max="2" width="13.75" customWidth="1"/>
-    <col min="3" max="3" width="22.125" customWidth="1"/>
-    <col min="4" max="4" width="14.5" customWidth="1"/>
-    <col min="5" max="23" width="6.375" customWidth="1"/>
-    <col min="25" max="25" width="18.125" style="5" customWidth="1"/>
-    <col min="26" max="26" width="21.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y2" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z2" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="T3" s="3">
-        <v>4</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y3" s="6"/>
-    </row>
-    <row r="5" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y5" s="6"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>2</v>
-      </c>
-      <c r="I6">
-        <v>3</v>
-      </c>
-      <c r="J6">
-        <v>4</v>
-      </c>
-      <c r="K6">
-        <v>5</v>
-      </c>
-      <c r="L6">
-        <v>6</v>
-      </c>
-      <c r="M6">
-        <v>7</v>
-      </c>
-      <c r="N6">
-        <v>8</v>
-      </c>
-      <c r="O6">
-        <v>9</v>
-      </c>
-      <c r="P6">
-        <v>10</v>
-      </c>
-      <c r="Q6">
-        <v>11</v>
-      </c>
-      <c r="R6">
-        <v>12</v>
-      </c>
-      <c r="S6">
-        <v>13</v>
-      </c>
-      <c r="T6">
-        <v>14</v>
-      </c>
-      <c r="U6">
-        <v>15</v>
-      </c>
-      <c r="V6">
-        <v>16</v>
-      </c>
-      <c r="W6">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>2</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>4</v>
-      </c>
-      <c r="M7">
-        <v>4</v>
-      </c>
-      <c r="N7">
-        <v>4</v>
-      </c>
-      <c r="O7">
-        <v>4</v>
-      </c>
-      <c r="P7">
-        <v>3</v>
-      </c>
-      <c r="Q7">
-        <v>2</v>
-      </c>
-      <c r="R7">
-        <v>2</v>
-      </c>
-      <c r="S7">
-        <v>2</v>
-      </c>
-      <c r="T7">
-        <v>2</v>
-      </c>
-      <c r="U7">
-        <v>1</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>1</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>1</v>
-      </c>
-      <c r="T9">
-        <v>1</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>1</v>
-      </c>
-      <c r="Q10">
-        <v>1</v>
-      </c>
-      <c r="R10">
-        <v>1</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>1</v>
-      </c>
-      <c r="V10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F11" t="s">
-        <v>1</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J11" t="s">
-        <v>1</v>
-      </c>
-      <c r="K11" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11" t="s">
-        <v>14</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>17</v>
-      </c>
-      <c r="R11" t="s">
-        <v>33</v>
-      </c>
-      <c r="S11" t="s">
-        <v>34</v>
-      </c>
-      <c r="T11" t="s">
-        <v>67</v>
-      </c>
-      <c r="U11" t="s">
-        <v>68</v>
-      </c>
-      <c r="V11" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z11" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="C12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12" s="2">
-        <v>0</v>
-      </c>
-      <c r="N12" s="2">
-        <v>0</v>
-      </c>
-      <c r="O12" s="2">
-        <v>0</v>
-      </c>
-      <c r="P12" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q12">
-        <v>1</v>
-      </c>
-      <c r="R12">
-        <v>1</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>1</v>
-      </c>
-      <c r="V12">
-        <v>1</v>
-      </c>
-      <c r="Z12" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="C13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y16" s="6"/>
-    </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="C17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>18</v>
-      </c>
-      <c r="U17" t="s">
-        <v>69</v>
-      </c>
-      <c r="V17" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="D18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I18" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>2</v>
-      </c>
-      <c r="R18" t="s">
-        <v>5</v>
-      </c>
-      <c r="U18" t="s">
-        <v>2</v>
-      </c>
-      <c r="V18" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z18" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="D19" t="s">
-        <v>37</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="P19" t="s">
-        <v>38</v>
-      </c>
-      <c r="R19" t="s">
-        <v>44</v>
-      </c>
-      <c r="U19" t="s">
-        <v>39</v>
-      </c>
-      <c r="V19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="C20" t="s">
-        <v>22</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="P20">
-        <v>1</v>
-      </c>
-      <c r="Q20">
-        <v>1</v>
-      </c>
-      <c r="U20">
-        <v>1</v>
-      </c>
-      <c r="V20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-      <c r="I21" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>2</v>
-      </c>
-      <c r="R21" t="s">
-        <v>5</v>
-      </c>
-      <c r="U21" t="s">
-        <v>2</v>
-      </c>
-      <c r="V21" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="D22" t="s">
-        <v>47</v>
-      </c>
-      <c r="I22" t="s">
-        <v>51</v>
-      </c>
-      <c r="P22" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>49</v>
-      </c>
-      <c r="R22" t="s">
-        <v>50</v>
-      </c>
-      <c r="U22" t="s">
-        <v>51</v>
-      </c>
-      <c r="V22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="2:26" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y24" s="6"/>
-    </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="C25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" t="s">
-        <v>72</v>
-      </c>
-      <c r="F25" t="s">
-        <v>1</v>
-      </c>
-      <c r="G25" t="s">
-        <v>26</v>
-      </c>
-      <c r="J25" t="s">
-        <v>1</v>
-      </c>
-      <c r="K25" t="s">
-        <v>12</v>
-      </c>
-      <c r="L25" t="s">
-        <v>14</v>
-      </c>
-      <c r="M25" t="s">
-        <v>28</v>
-      </c>
-      <c r="N25" t="s">
-        <v>62</v>
-      </c>
-      <c r="O25" t="s">
-        <v>63</v>
-      </c>
-      <c r="P25" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>1</v>
-      </c>
-      <c r="R25" t="s">
-        <v>33</v>
-      </c>
-      <c r="S25" t="s">
-        <v>34</v>
-      </c>
-      <c r="T25" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="C26" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26" t="s">
-        <v>72</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26">
-        <v>1</v>
-      </c>
-      <c r="Q26">
-        <v>1</v>
-      </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
-      <c r="S26">
-        <v>0</v>
-      </c>
-      <c r="T26">
-        <v>0</v>
-      </c>
-      <c r="U26">
-        <v>1</v>
-      </c>
-      <c r="V26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="C27" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
-      <c r="J27">
-        <v>1</v>
-      </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>1</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>1</v>
-      </c>
-      <c r="P27">
-        <v>2</v>
-      </c>
-      <c r="Q27">
-        <v>3</v>
-      </c>
-      <c r="R27">
-        <v>3</v>
-      </c>
-      <c r="S27">
-        <v>3</v>
-      </c>
-      <c r="T27">
-        <v>3</v>
-      </c>
-      <c r="U27">
-        <v>4</v>
-      </c>
-      <c r="V27">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0E264D1-DC63-4348-8180-860366D884B8}">
   <dimension ref="A1:AE29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+    <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
       <selection activeCell="W23" sqref="W23"/>
     </sheetView>
   </sheetViews>
@@ -3053,13 +1786,13 @@
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AD2" s="5" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AE2" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.4">
@@ -3076,7 +1809,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="J3" s="8">
         <v>3</v>
@@ -3299,10 +2032,10 @@
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.4">
       <c r="C9" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="D9" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -3523,7 +2256,7 @@
         <v>1</v>
       </c>
       <c r="AE11" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.4">
@@ -3531,7 +2264,7 @@
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F12" t="s">
         <v>1</v>
@@ -3540,25 +2273,25 @@
         <v>26</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="O12" t="s">
         <v>1</v>
@@ -3573,13 +2306,13 @@
         <v>28</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="V12" t="s">
         <v>17</v>
@@ -3591,21 +2324,21 @@
         <v>34</v>
       </c>
       <c r="Y12" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="Z12" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="AA12" t="s">
         <v>2</v>
       </c>
       <c r="AE12" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.4">
       <c r="C13" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -3677,15 +2410,15 @@
         <v>1</v>
       </c>
       <c r="AE13" s="7" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.4">
       <c r="C14" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -3757,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="AE14" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="2:31" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -3771,22 +2504,22 @@
         <v>13</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="V18" t="s">
         <v>19</v>
       </c>
       <c r="Z18" s="11" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="AA18" t="s">
         <v>2</v>
       </c>
       <c r="AE18" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="2:31" x14ac:dyDescent="0.4">
@@ -3812,30 +2545,30 @@
         <v>2</v>
       </c>
       <c r="AE19" s="7" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="2:31" x14ac:dyDescent="0.4">
       <c r="D20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="U20" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="V20" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="W20" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="Z20" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AA20" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="2:31" x14ac:dyDescent="0.4">
@@ -3883,13 +2616,13 @@
     </row>
     <row r="23" spans="2:31" x14ac:dyDescent="0.4">
       <c r="D23" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="U23" s="11" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="V23" t="s">
         <v>19</v>
@@ -3912,7 +2645,7 @@
         <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F26" t="s">
         <v>1</v>
@@ -3921,22 +2654,22 @@
         <v>26</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="O26" t="s">
         <v>1</v>
@@ -3951,10 +2684,10 @@
         <v>28</v>
       </c>
       <c r="S26" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="T26" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="U26" t="s">
         <v>12</v>
@@ -3969,15 +2702,15 @@
         <v>34</v>
       </c>
       <c r="Y26" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="2:31" x14ac:dyDescent="0.4">
       <c r="C27" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D27" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -4051,7 +2784,7 @@
     </row>
     <row r="28" spans="2:31" x14ac:dyDescent="0.4">
       <c r="C28" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -4125,10 +2858,10 @@
     </row>
     <row r="29" spans="2:31" x14ac:dyDescent="0.4">
       <c r="C29" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="D29" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -4200,7 +2933,7 @@
         <v>1</v>
       </c>
       <c r="AE29" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -4210,12 +2943,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{417BAF8A-04D3-42B3-8B91-D3A3E24E9EDE}">
   <dimension ref="A1:AE29"/>
   <sheetViews>
     <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="W18" sqref="W18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4233,18 +2966,18 @@
         <v>25</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AD2" s="5" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AE2" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:31" s="9" customFormat="1" x14ac:dyDescent="0.4">
@@ -4261,7 +2994,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="J3" s="8">
         <v>3</v>
@@ -4484,10 +3217,10 @@
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.4">
       <c r="C9" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="D9" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -4708,7 +3441,7 @@
         <v>1</v>
       </c>
       <c r="AE11" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.4">
@@ -4716,7 +3449,7 @@
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F12" t="s">
         <v>1</v>
@@ -4725,25 +3458,25 @@
         <v>26</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="O12" t="s">
         <v>1</v>
@@ -4758,13 +3491,13 @@
         <v>28</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="V12" t="s">
         <v>17</v>
@@ -4776,21 +3509,21 @@
         <v>34</v>
       </c>
       <c r="Y12" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="Z12" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="AA12" t="s">
         <v>2</v>
       </c>
       <c r="AE12" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.4">
       <c r="C13" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -4862,15 +3595,15 @@
         <v>1</v>
       </c>
       <c r="AE13" s="7" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.4">
       <c r="C14" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -4942,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="AE14" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="2:31" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -4956,22 +3689,22 @@
         <v>13</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="V18" t="s">
         <v>19</v>
       </c>
       <c r="Z18" s="11" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="AA18" t="s">
         <v>2</v>
       </c>
       <c r="AE18" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="2:31" x14ac:dyDescent="0.4">
@@ -4997,30 +3730,30 @@
         <v>2</v>
       </c>
       <c r="AE19" s="7" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="2:31" x14ac:dyDescent="0.4">
       <c r="D20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="U20" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="V20" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="W20" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="Z20" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AA20" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="2:31" x14ac:dyDescent="0.4">
@@ -5071,7 +3804,7 @@
         <v>8</v>
       </c>
       <c r="N23" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="U23" t="s">
         <v>12</v>
@@ -5083,10 +3816,10 @@
         <v>33</v>
       </c>
       <c r="Z23" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AA23" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="2:31" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -5100,7 +3833,7 @@
         <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F26" t="s">
         <v>1</v>
@@ -5109,22 +3842,22 @@
         <v>26</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="O26" t="s">
         <v>1</v>
@@ -5139,10 +3872,10 @@
         <v>28</v>
       </c>
       <c r="S26" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="T26" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="U26" t="s">
         <v>12</v>
@@ -5157,15 +3890,15 @@
         <v>34</v>
       </c>
       <c r="Y26" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="2:31" x14ac:dyDescent="0.4">
       <c r="C27" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D27" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -5239,7 +3972,7 @@
     </row>
     <row r="28" spans="2:31" x14ac:dyDescent="0.4">
       <c r="C28" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -5313,10 +4046,10 @@
     </row>
     <row r="29" spans="2:31" x14ac:dyDescent="0.4">
       <c r="C29" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="D29" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -5388,7 +4121,1618 @@
         <v>1</v>
       </c>
       <c r="AE29" t="s">
-        <v>76</v>
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2B2DD1C-7E0A-4E18-93DD-C22DDEE28F4E}">
+  <dimension ref="A1:AG33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="AG4" sqref="AG4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="15"/>
+    <col min="2" max="2" width="13.75" style="15" customWidth="1"/>
+    <col min="3" max="3" width="22.125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="28.125" style="15" customWidth="1"/>
+    <col min="5" max="21" width="6.5" style="15" customWidth="1"/>
+    <col min="22" max="24" width="3.25" style="15" customWidth="1"/>
+    <col min="25" max="25" width="10.125" style="16" customWidth="1"/>
+    <col min="26" max="26" width="21.375" style="15" customWidth="1"/>
+    <col min="27" max="32" width="9" style="15"/>
+    <col min="33" max="33" width="13.25" style="15" customWidth="1"/>
+    <col min="34" max="16384" width="9" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A1" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A2" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y2" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z2" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG2" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" s="18" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="M3" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="N3" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="O3" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="P3" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q3" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="R3" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="S3" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y3" s="20"/>
+      <c r="AG3" s="15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" s="18" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y5" s="20"/>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="C6" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="O6" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="P6" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q6" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="R6" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="S6" s="15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="C7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="N7" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="O7" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="P7" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q7" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="R7" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="S7" s="15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="C9" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="M9" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="N9" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="O9" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="P9" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q9" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="R9" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="S9" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z9" s="17"/>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="C10" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="C11" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="C12" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="L12" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="M12" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="N12" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="O12" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="P12" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q12" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="R12" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="S12" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z12" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="D13" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z13" s="17"/>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="D14" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="Z14" s="17"/>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="C15" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="J15" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="K15" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="L15" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="M15" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="N15" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="O15" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="P15" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q15" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="R15" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="S15" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z15" s="17"/>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="D16" s="15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="2:33" s="18" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y18" s="20"/>
+    </row>
+    <row r="19" spans="2:33" x14ac:dyDescent="0.4">
+      <c r="C19" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q19" s="21"/>
+      <c r="Z19" s="15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="2:33" x14ac:dyDescent="0.4">
+      <c r="D20" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z20" s="17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="2:33" x14ac:dyDescent="0.4">
+      <c r="D21" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="O21" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q21" s="21"/>
+      <c r="S21" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG21" s="22" t="str">
+        <f>CONCATENATE(H21,O21,S21)</f>
+        <v>$($()()($))</v>
+      </c>
+    </row>
+    <row r="23" spans="2:33" x14ac:dyDescent="0.4">
+      <c r="D23" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="K23" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="L23" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="M23" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="N23" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="O23" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="P23" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q23" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="R23" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="S23" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z23" s="17"/>
+    </row>
+    <row r="24" spans="2:33" x14ac:dyDescent="0.4">
+      <c r="D24" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="L24" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="M24" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="N24" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="O24" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="P24" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q24" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="R24" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="S24" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z24" s="17"/>
+    </row>
+    <row r="25" spans="2:33" x14ac:dyDescent="0.4">
+      <c r="D25" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="J25" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="K25" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="L25" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="M25" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="N25" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q25" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="R25" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z25" s="17"/>
+    </row>
+    <row r="26" spans="2:33" x14ac:dyDescent="0.4">
+      <c r="D26" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="21"/>
+      <c r="Z26" s="17"/>
+    </row>
+    <row r="27" spans="2:33" x14ac:dyDescent="0.4">
+      <c r="D27" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q27" s="21"/>
+    </row>
+    <row r="28" spans="2:33" x14ac:dyDescent="0.4">
+      <c r="C28" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="2:33" x14ac:dyDescent="0.4">
+      <c r="D29" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="I29" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="J29" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="K29" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="L29" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="M29" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="N29" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="P29" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q29" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="R29" s="15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="2:33" s="18" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y32" s="20"/>
+    </row>
+    <row r="33" spans="3:26" x14ac:dyDescent="0.4">
+      <c r="C33" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="I33" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="J33" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="K33" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="L33" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="M33" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="N33" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="O33" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="P33" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q33" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="R33" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="S33" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z33" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBF4E688-95D0-49DF-B511-FD9F7B9404C5}">
+  <dimension ref="A1:AK33"/>
+  <sheetViews>
+    <sheetView zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="AD20" sqref="AD20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="15"/>
+    <col min="2" max="2" width="13.75" style="15" customWidth="1"/>
+    <col min="3" max="3" width="22.125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="28.125" style="15" customWidth="1"/>
+    <col min="5" max="14" width="6.5" style="15" customWidth="1"/>
+    <col min="15" max="19" width="8.75" style="15" customWidth="1"/>
+    <col min="20" max="25" width="6.5" style="15" customWidth="1"/>
+    <col min="26" max="28" width="3.25" style="15" customWidth="1"/>
+    <col min="29" max="29" width="10.125" style="16" customWidth="1"/>
+    <col min="30" max="30" width="21.375" style="15" customWidth="1"/>
+    <col min="31" max="35" width="4" style="15" customWidth="1"/>
+    <col min="36" max="36" width="3.5" style="15" customWidth="1"/>
+    <col min="37" max="37" width="13.25" style="15" customWidth="1"/>
+    <col min="38" max="16384" width="9" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A1" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A2" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC2" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD2" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK2" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="M3" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="N3" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="R3" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="S3" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="T3" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="U3" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="V3" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="W3" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC3" s="20"/>
+      <c r="AK3" s="18" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" s="18" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC5" s="20"/>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="C6" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="O6" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="P6" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q6" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="R6" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="S6" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="T6" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="U6" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="V6" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="W6" s="15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="C7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="N7" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="O7" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="P7" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q7" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="R7" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="S7" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="T7" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="U7" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="V7" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="W7" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="C9" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="M9" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="N9" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="O9" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="P9" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q9" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="R9" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="S9" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="T9" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="U9" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="V9" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="W9" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD9" s="17"/>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="C10" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="C11" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="C12" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="L12" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="M12" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="N12" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="O12" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="P12" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q12" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="R12" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="S12" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="T12" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="U12" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="V12" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="W12" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD12" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="D13" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD13" s="17"/>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="D14" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="AD14" s="17"/>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="C15" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="J15" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="K15" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="L15" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="M15" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="N15" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="O15" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="P15" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q15" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="R15" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="S15" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="T15" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="U15" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="V15" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="W15" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD15" s="17"/>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="D16" s="15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="2:37" s="18" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC18" s="20"/>
+    </row>
+    <row r="19" spans="2:37" x14ac:dyDescent="0.4">
+      <c r="C19" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="U19" s="21"/>
+      <c r="AD19" s="15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="2:37" x14ac:dyDescent="0.4">
+      <c r="D20" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD20" s="17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="2:37" x14ac:dyDescent="0.4">
+      <c r="D21" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="S21" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="U21" s="21"/>
+      <c r="W21" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="AK21" s="22" t="str">
+        <f>CONCATENATE(H21,S21,W21)</f>
+        <v>$($[,3]()()($))</v>
+      </c>
+    </row>
+    <row r="23" spans="2:37" x14ac:dyDescent="0.4">
+      <c r="D23" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="K23" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="L23" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="M23" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="N23" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="O23" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="P23" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q23" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="R23" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="S23" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="T23" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="U23" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="V23" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="W23" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD23" s="17"/>
+    </row>
+    <row r="24" spans="2:37" x14ac:dyDescent="0.4">
+      <c r="D24" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="L24" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="M24" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="N24" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="O24" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="P24" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q24" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="R24" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="S24" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="T24" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="U24" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="V24" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="W24" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="AD24" s="17"/>
+    </row>
+    <row r="25" spans="2:37" x14ac:dyDescent="0.4">
+      <c r="D25" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="J25" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="K25" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="L25" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="M25" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="N25" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="O25" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="P25" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q25" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="R25" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="S25" s="21"/>
+      <c r="T25" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="U25" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="V25" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD25" s="17"/>
+    </row>
+    <row r="26" spans="2:37" x14ac:dyDescent="0.4">
+      <c r="D26" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="21"/>
+      <c r="S26" s="21"/>
+      <c r="T26" s="21"/>
+      <c r="U26" s="21"/>
+      <c r="AD26" s="17"/>
+    </row>
+    <row r="27" spans="2:37" x14ac:dyDescent="0.4">
+      <c r="D27" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="U27" s="21"/>
+    </row>
+    <row r="28" spans="2:37" x14ac:dyDescent="0.4">
+      <c r="C28" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="2:37" x14ac:dyDescent="0.4">
+      <c r="D29" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="I29" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="J29" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="K29" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="L29" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="M29" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="N29" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="O29" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="P29" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q29" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="R29" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="T29" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="U29" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="V29" s="15" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="32" spans="2:37" s="18" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC32" s="20"/>
+    </row>
+    <row r="33" spans="3:30" x14ac:dyDescent="0.4">
+      <c r="C33" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="I33" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="J33" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="K33" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="L33" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="M33" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="N33" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="O33" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="P33" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q33" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="R33" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="S33" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="T33" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="U33" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="V33" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="W33" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD33" s="15" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
